--- a/Backend/Excel/Fall Enrollment Stats.xlsx
+++ b/Backend/Excel/Fall Enrollment Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bipularyal/Desktop/FISK_IPDES_Proj/Backend/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792F78A0-330C-3E4A-BAEA-F7E438774189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A344B76-8729-5445-AF7B-216231B9FE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{0A1B7B3C-25DC-1D44-8DC2-7F3E13935606}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Student Enrollment</t>
   </si>
@@ -156,10 +156,19 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Percent of female student</t>
-  </si>
-  <si>
-    <t>Student_faculty ratio</t>
+    <t>totalEnrollment</t>
+  </si>
+  <si>
+    <t>undergradEnrollment</t>
+  </si>
+  <si>
+    <t>gradEnrollment</t>
+  </si>
+  <si>
+    <t>studentFacultyRatio</t>
+  </si>
+  <si>
+    <t>percentOfFemaleStudent</t>
   </si>
 </sst>
 </file>
@@ -595,7 +604,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -609,19 +618,19 @@
         <v>38</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6">
